--- a/biology/Botanique/Astrid_Lindgren_(rose)/Astrid_Lindgren_(rose).xlsx
+++ b/biology/Botanique/Astrid_Lindgren_(rose)/Astrid_Lindgren_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽAstrid Lindgren’ est un cultivar de rosier obtenu au Danemark en 1989 par le rosiériste Poulsen[2],[3]. Il doit son nom à la romancière danoise Astrid Lindgren. C'est un rosier très apprécié sous les climats aux hivers rudes. Il est parfois commercialisé sous le nom de ʽCharentes’ en France.
+ʽAstrid Lindgren’ est un cultivar de rosier obtenu au Danemark en 1989 par le rosiériste Poulsen,. Il doit son nom à la romancière danoise Astrid Lindgren. C'est un rosier très apprécié sous les climats aux hivers rudes. Il est parfois commercialisé sous le nom de ʽCharentes’ en France.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ʽAstrid Lindgren’ est un rosier moderne du groupe floribunda[4]. Son buisson peut s'élever de 120 cm à 245 cm. Son feuillage est vert foncé et semibrillant avec des rameaux épineux[2].
-Ses fleurs  d'allure raffinée sont d'un rose pâle délicat au parfum de framboise. Elles sont en forme de coupe de 17 à 25 pétales et forment de petits bouquets. La floraison est abondante à la fin du printemps, puis elle est dispersée jusqu'aux premières gelées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ʽAstrid Lindgren’ est un rosier moderne du groupe floribunda. Son buisson peut s'élever de 120 cm à 245 cm. Son feuillage est vert foncé et semibrillant avec des rameaux épineux.
+Ses fleurs  d'allure raffinée sont d'un rose pâle délicat au parfum de framboise. Elles sont en forme de coupe de 17 à 25 pétales et forment de petits bouquets. La floraison est abondante à la fin du printemps, puis elle est dispersée jusqu'aux premières gelées.
 Ce cultivar est très résistant au froid hivernal (zone de rusticité 4b à 9b) et sa couleur délicate en fait un grand succès international.
 </t>
         </is>
@@ -545,17 +559,19 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Belfast Certificate of Merit. Belfast Rose Trials. 1991
 La Haye Certificat de mérite. The Hague Rose Trials. 1991
 Lyon 1er prix. Concours des roses de Lyon. 1989
-Médaille d'or Baden-Baden. Baden-Baden Rose Trials. 1988[2]
+Médaille d'or Baden-Baden. Baden-Baden Rose Trials. 1988
 Médaille d'argent. Copenhague. 1993
 Certificat de bronze. La Haye. 1993
 Certificat de mérite. La Haye. 1991
 Trial Ground Certificate. St.Albans Angleterre. 1988
-Trial Ground Certificate. St.Albans Angleterre. 1987[5]
+Trial Ground Certificate. St.Albans Angleterre. 1987
 			ʽAstrid Lindgren’.
 </t>
         </is>
